--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,16 +1067,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Home Point Recorded . Taking off .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Loading database failed . Geo-awareness function degraded .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Low Power . Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,16 +1277,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,11 +1337,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1367,16 +1367,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,26 +1457,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1487,51 +1487,51 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,21 +1547,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,27 +1631,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,27 +1691,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1720,66 +1720,6 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>22</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>22</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Home Point Recorded . Taking off .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,16 +1067,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loading database failed . Geo-awareness function degraded .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Low Power . Aircraft is returning to the Home Point .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,16 +1277,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,11 +1337,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1367,16 +1367,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,26 +1457,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1487,51 +1487,51 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,21 +1547,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,27 +1631,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,35 +1691,95 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>21</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>22</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>9-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
